--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2424100.011505222</v>
+        <v>2421555.418810939</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9265927.202114932</v>
+        <v>9265927.20211493</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>172.0188164403312</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>68.11693918766126</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>38.71987512790821</v>
+        <v>130.4949840230013</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131.4546711819377</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760031</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425941</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>119.2654231719222</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,10 +981,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074786</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>196.3506765115013</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>33.45775895766185</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>94.82998161740171</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589145</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>50.36584097780973</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>22.02463114641541</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>200.4727983501231</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>136.0756624296415</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1260,22 +1260,22 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>221.4087062169173</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>73.73431546344879</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>274.9632582378651</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206814</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,10 +1427,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701368</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>36.00502760852208</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,22 +1607,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986265</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>112.5284434523329</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.8605623338611</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174144</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189101</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>105.1162657551305</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,10 +2081,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699719</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>78.68827782033955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>198.9107847550995</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428077</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>75.00788511618036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="D31" t="n">
-        <v>104.8913819999796</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>35.55160172423423</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,16 +3241,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>75.00788511618036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>72.2655838169983</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238289</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337067</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>112.6849016609953</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874485</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.4426321268585</v>
+        <v>103.982671376771</v>
       </c>
       <c r="C2" t="n">
-        <v>322.4426321268585</v>
+        <v>103.982671376771</v>
       </c>
       <c r="D2" t="n">
-        <v>322.4426321268585</v>
+        <v>103.982671376771</v>
       </c>
       <c r="E2" t="n">
-        <v>322.4426321268585</v>
+        <v>103.982671376771</v>
       </c>
       <c r="F2" t="n">
-        <v>315.497131377655</v>
+        <v>97.03717062756751</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>83.8070360517513</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
@@ -4346,34 +4346,34 @@
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262252</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433432</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268585</v>
+        <v>482.8222414097403</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268585</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="V2" t="n">
-        <v>322.4426321268585</v>
+        <v>103.982671376771</v>
       </c>
       <c r="W2" t="n">
-        <v>322.4426321268585</v>
+        <v>103.982671376771</v>
       </c>
       <c r="X2" t="n">
-        <v>322.4426321268585</v>
+        <v>103.982671376771</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.4426321268585</v>
+        <v>103.982671376771</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.9364566345569</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>163.9364566345569</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
         <v>15.00204697330559</v>
@@ -4413,7 +4413,7 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
         <v>338.7690911140243</v>
@@ -4422,37 +4422,37 @@
         <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264275</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>525.6547321810237</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>336.2349471645391</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>146.8151621480544</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487947</v>
+        <v>146.8151621480544</v>
       </c>
       <c r="W3" t="n">
-        <v>371.26277863231</v>
+        <v>146.8151621480544</v>
       </c>
       <c r="X3" t="n">
-        <v>332.1517936546249</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y3" t="n">
-        <v>332.1517936546249</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
         <v>15.00204697330559</v>
@@ -4492,46 +4492,46 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1570.936070397276</v>
+        <v>533.4632969992051</v>
       </c>
       <c r="C5" t="n">
-        <v>1201.973553456864</v>
+        <v>533.4632969992051</v>
       </c>
       <c r="D5" t="n">
-        <v>843.7078548501138</v>
+        <v>533.4632969992051</v>
       </c>
       <c r="E5" t="n">
-        <v>457.9196022518695</v>
+        <v>147.6750444009609</v>
       </c>
       <c r="F5" t="n">
-        <v>46.933697462262</v>
+        <v>140.7295436517574</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675758</v>
+        <v>128.353902506253</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675758</v>
+        <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675758</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017212</v>
+        <v>111.6705539017219</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746973</v>
+        <v>277.9807166746981</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030751</v>
+        <v>521.204941603077</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709161</v>
+        <v>823.5081935709194</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582749</v>
+        <v>1135.316836582754</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079236</v>
+        <v>1416.413635079242</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332754</v>
+        <v>1621.822248332761</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837879</v>
+        <v>1727.902815837887</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540647</v>
+        <v>1727.902815837887</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540647</v>
+        <v>1586.994975598235</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540647</v>
+        <v>1375.13564073467</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540647</v>
+        <v>1375.13564073467</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.718566540647</v>
+        <v>1044.0727533911</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.718566540647</v>
+        <v>923.6026289750168</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.718566540647</v>
+        <v>923.6026289750168</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.718566540647</v>
+        <v>533.4632969992051</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377064</v>
+        <v>357.945495259136</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565794</v>
+        <v>183.492465978009</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953281</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898726</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675758</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675758</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675758</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675758</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787499</v>
+        <v>61.66788464787555</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806056</v>
+        <v>186.1577239806068</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189966</v>
+        <v>399.8722171189987</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223482</v>
+        <v>668.6238185223514</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352455</v>
+        <v>958.8971200352498</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228316</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639505</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906545</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906545</v>
+        <v>1401.100270703776</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906545</v>
+        <v>1258.309378699372</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906545</v>
+        <v>1062.768760419127</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906545</v>
+        <v>834.6536183746831</v>
       </c>
       <c r="V6" t="n">
-        <v>1445.878660906545</v>
+        <v>599.5015101429403</v>
       </c>
       <c r="W6" t="n">
-        <v>1247.544644228261</v>
+        <v>599.5015101429403</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.693144022728</v>
+        <v>565.70579402409</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577745</v>
+        <v>357.945495259136</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318.9444627395262</v>
+        <v>130.3459165363554</v>
       </c>
       <c r="C7" t="n">
-        <v>150.0082798116192</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="D7" t="n">
-        <v>150.0082798116192</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="E7" t="n">
-        <v>150.0082798116192</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="F7" t="n">
-        <v>150.0082798116192</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="G7" t="n">
-        <v>150.0082798116192</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0082798116192</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675758</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675758</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574654</v>
+        <v>64.24066662574712</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584109</v>
+        <v>132.129986158412</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347962</v>
+        <v>206.9680378347978</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195354</v>
+        <v>287.8841338195375</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934701</v>
+        <v>342.3101561934727</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857986</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857986</v>
+        <v>332.5350520040931</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857986</v>
+        <v>332.5350520040931</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857986</v>
+        <v>130.3459165363554</v>
       </c>
       <c r="T7" t="n">
-        <v>318.9444627395262</v>
+        <v>130.3459165363554</v>
       </c>
       <c r="U7" t="n">
-        <v>318.9444627395262</v>
+        <v>130.3459165363554</v>
       </c>
       <c r="V7" t="n">
-        <v>318.9444627395262</v>
+        <v>130.3459165363554</v>
       </c>
       <c r="W7" t="n">
-        <v>318.9444627395262</v>
+        <v>130.3459165363554</v>
       </c>
       <c r="X7" t="n">
-        <v>318.9444627395262</v>
+        <v>130.3459165363554</v>
       </c>
       <c r="Y7" t="n">
-        <v>318.9444627395262</v>
+        <v>130.3459165363554</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.362210729296</v>
+        <v>835.308259524301</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.399693788884</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821335</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="E8" t="n">
         <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G8" t="n">
         <v>43.36919653809306</v>
@@ -4802,13 +4802,13 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4835,19 +4835,19 @@
         <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W8" t="n">
-        <v>1965.962050793417</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="X8" t="n">
-        <v>1965.962050793417</v>
+        <v>857.5553616923974</v>
       </c>
       <c r="Y8" t="n">
-        <v>1965.962050793417</v>
+        <v>857.5553616923974</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>501.8069478626801</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>327.3539185815531</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="E9" t="n">
         <v>189.9037545112081</v>
@@ -4908,25 +4908,25 @@
         <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="U9" t="n">
-        <v>1734.238298972664</v>
+        <v>1367.172048607646</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1132.019940375904</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>877.782583647702</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>877.782583647702</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>670.0222848827482</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117.8483030668292</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
         <v>43.36919653809306</v>
@@ -4987,25 +4987,25 @@
         <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>299.4967678970689</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,28 +5027,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5075,16 +5075,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1397.332650892738</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.5505208511905</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,25 +5264,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5294,7 +5294,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>172.349019141113</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098242</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819185</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695828</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>516.3896878871897</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640064</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5546,10 +5546,10 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1582.207807637403</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,10 +5738,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400617</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121548</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853351</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580251</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832653</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487558</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510499</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854697</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.70136564881</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611849</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138315</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703014</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,13 +5975,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6002,25 +6002,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1996.142560886457</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1707.067334230655</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1452.382846024768</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1162.965675987807</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>934.9761250897898</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>714.1835459462596</v>
       </c>
     </row>
     <row r="26">
@@ -6221,19 +6221,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6242,31 +6242,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,22 +6309,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782942</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038329</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,28 +6473,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,61 +6595,61 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400726</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400726</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
         <v>1688.385853854707</v>
@@ -6658,13 +6658,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703123</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,13 +6692,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
@@ -6707,40 +6707,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>591.7265122257533</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>443.8134186433601</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>296.9234711454498</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>129.7273718603297</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>129.7273718603297</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.112710026076</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7427,10 +7427,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398594</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2497.745796000626</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362695</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>250.5179707280689</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>32.89260457059837</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.3791545843329</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>147.0213775686975</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844824047</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>147.0213775686976</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>18.49466557218875</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393159</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>37.1260136526042</v>
       </c>
       <c r="D31" t="n">
-        <v>43.7240910182328</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>45.71423459433129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,16 +25129,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>213.9188905722459</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.922421112517128</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580513</v>
       </c>
     </row>
     <row r="9">
@@ -26314,46 +26314,46 @@
         <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448192</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597553</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597552</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253109</v>
+        <v>270592.3620253134</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231944</v>
+        <v>115410.0540231921</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742654</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.6376588194</v>
+        <v>62913.63765881992</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197521</v>
+        <v>27875.25362197471</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263466</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687956</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687963</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687958</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687951</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687965</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15436.64000687962</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15436.64000687964</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15436.64000687962</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687964</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687965</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687968</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687962</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936808</v>
+        <v>76435.73471936824</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290571.8961217692</v>
+        <v>-290571.8961217691</v>
       </c>
       <c r="C6" t="n">
-        <v>82674.85197379382</v>
+        <v>82674.85197379153</v>
       </c>
       <c r="D6" t="n">
-        <v>261495.2456768556</v>
+        <v>261495.2456768577</v>
       </c>
       <c r="E6" t="n">
-        <v>-92463.76264529748</v>
+        <v>-92498.50057073295</v>
       </c>
       <c r="F6" t="n">
-        <v>508979.444928968</v>
+        <v>508944.7070035329</v>
       </c>
       <c r="G6" t="n">
-        <v>508979.4449289682</v>
+        <v>508944.7070035324</v>
       </c>
       <c r="H6" t="n">
-        <v>508979.4449289679</v>
+        <v>508944.7070035324</v>
       </c>
       <c r="I6" t="n">
-        <v>508979.444928968</v>
+        <v>508944.7070035321</v>
       </c>
       <c r="J6" t="n">
-        <v>459914.5002004235</v>
+        <v>459879.7622749882</v>
       </c>
       <c r="K6" t="n">
-        <v>446065.8072701486</v>
+        <v>446031.0693447124</v>
       </c>
       <c r="L6" t="n">
-        <v>481104.1913069926</v>
+        <v>481069.4533815577</v>
       </c>
       <c r="M6" t="n">
-        <v>351833.0643773698</v>
+        <v>351798.3264519342</v>
       </c>
       <c r="N6" t="n">
-        <v>508979.4449289682</v>
+        <v>508944.7070035322</v>
       </c>
       <c r="O6" t="n">
-        <v>508979.4449289682</v>
+        <v>508944.7070035323</v>
       </c>
       <c r="P6" t="n">
-        <v>508979.444928968</v>
+        <v>508944.7070035326</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950603</v>
+        <v>758.8996292950623</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594697</v>
+        <v>431.9757039594717</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26808,16 +26808,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821557</v>
+        <v>210.4296883821578</v>
       </c>
       <c r="D3" t="n">
-        <v>94.8110352426238</v>
+        <v>94.81103524262187</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039899</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931499</v>
+        <v>244.4501167931519</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666935</v>
+        <v>110.1392527666915</v>
       </c>
       <c r="E4" t="n">
         <v>630.5933313734854</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931499</v>
+        <v>244.4501167931519</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666935</v>
+        <v>110.1392527666915</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931499</v>
+        <v>244.4501167931519</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666935</v>
+        <v>110.1392527666915</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734854</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0790167897268</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>248.776886918561</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>25.91829388988697</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871053</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038151</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681441</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377112</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>167.0531100755693</v>
+        <v>75.27800118047614</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.7859889482797</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.049135239016</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>251.2791704815429</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760061</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425892</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>229.9755455454908</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246134</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937524</v>
+        <v>43.3208508493751</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074812</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>55.34430664941834</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>172.3152262458156</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>72.41683948122612</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304065</v>
+        <v>30.24193919304041</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589174</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>171.732489011641</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>360.7092105170652</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27907,16 +27907,16 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>148.7681703672899</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27935,10 +27935,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>11.36940313499721</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27980,22 +27980,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>11.39188093250795</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>93.51250563517904</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28059,13 +28059,13 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>11.2717995778516</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28147,10 +28147,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.827796244270386e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.353712668104585e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28618,13 +28618,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.179602050945138e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.940673832634699e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.414636683656336e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-3.775416340280333e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30201,7 +30201,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-5.35127896428318e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31075,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31121,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31130,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31139,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31148,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085667</v>
+        <v>3.050852781085675</v>
       </c>
       <c r="H5" t="n">
-        <v>31.2445460442936</v>
+        <v>31.24454604429368</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428053</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286699</v>
+        <v>258.9373162286706</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520263</v>
+        <v>388.0799144520273</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511769</v>
+        <v>481.4474502511781</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968091</v>
+        <v>535.7030533968104</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610688</v>
+        <v>544.3712888610702</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191482</v>
+        <v>514.0343715191494</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860957</v>
+        <v>438.7164434860968</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634651</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098727</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898971</v>
+        <v>69.5213077489899</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920252</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868533</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030884</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403512</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062476</v>
+        <v>56.2015291506249</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475934</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316626</v>
+        <v>263.5887514316633</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721884</v>
+        <v>354.4276051721893</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658078</v>
+        <v>413.6002979658089</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468659</v>
+        <v>424.547067146867</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374447</v>
+        <v>388.3776244374457</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872485</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547494</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632158</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947715</v>
+        <v>30.32018801947723</v>
       </c>
       <c r="T6" t="n">
-        <v>6.57951659737887</v>
+        <v>6.579516597378887</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757161</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236994</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734525</v>
+        <v>41.15475366734535</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635546</v>
+        <v>96.7534822463557</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260798</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162527</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399135</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528485</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275344</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514996</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235541</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.533074860547</v>
+        <v>61.53307486054716</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391197</v>
+        <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830791</v>
+        <v>5.847259438830806</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656339</v>
+        <v>0.07464586517656358</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>268.6704608606959</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,19 +32072,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>204.3779992811859</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32096,10 +32096,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,13 +32309,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>290.6810969936916</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32336,7 +32336,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>339.3493584601592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399242</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>339.3493584601592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>704.1404939038099</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463986</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745674</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.544175081759</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>158.8462560123205</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M45" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.8914117019836</v>
+        <v>77.89141170198428</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070457</v>
+        <v>167.9900634070467</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811896</v>
+        <v>245.6810352811909</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695364</v>
+        <v>305.3568201695377</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644779</v>
+        <v>314.9582252644793</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974614</v>
+        <v>283.9361600974627</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308261</v>
+        <v>207.4834477308272</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890156</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092668</v>
+        <v>27.38366498092708</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573036</v>
+        <v>125.7473124573043</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923142</v>
+        <v>215.8732253923151</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437895</v>
+        <v>271.4662640437905</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635326</v>
+        <v>293.2053550635337</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930003</v>
+        <v>245.7813799930012</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729182</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.3862901687279</v>
+        <v>68.38629016872844</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554441</v>
+        <v>29.98243465554484</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501446</v>
+        <v>68.57507023501498</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230841</v>
+        <v>75.59399159230898</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761531</v>
+        <v>81.73343028761582</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569165</v>
+        <v>54.97578017569214</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235202</v>
+        <v>27.78676100235245</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35194,7 +35194,7 @@
         <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998997</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>77.54037261451917</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35744,10 +35744,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>159.3393849103583</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066147</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>200.7949786802851</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>134.202553156591</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295182</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>200.7949786802851</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010463</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>572.7987818204766</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>90.01966967203961</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367785</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>18.86448192629892</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M45" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
